--- a/docs/wikistudenti_tabella_pianificazione.xlsx
+++ b/docs/wikistudenti_tabella_pianificazione.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c58f73d820186008/Scuola/ITIS/TPSI/Javascript/wikistudenti/WikiStudenti/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12789150-2203-4DBB-97C1-414C1B3A2D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{12789150-2203-4DBB-97C1-414C1B3A2D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD87E15D-8059-4E76-8E64-9F9F6F9C13B3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C7102BFD-B59E-4E1F-BF67-F7206F883A90}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>1.3 Creare backend</t>
   </si>
   <si>
-    <t>1.3.1 Creare  web services</t>
-  </si>
-  <si>
     <t>1.1.2 Installare gestore web server</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Ore/uomo</t>
+  </si>
+  <si>
+    <t>1.3.1 Creare web services</t>
   </si>
 </sst>
 </file>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD26BF0-5F83-4C4F-BC31-E7BAC570900C}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,10 +533,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -567,7 +567,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6">
         <f>SUM(B13:B16)</f>
@@ -634,7 +634,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <f>SUM(B18:B19)</f>
@@ -675,7 +675,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>1</v>
